--- a/Capstone/FieldComparison.xlsx
+++ b/Capstone/FieldComparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Github\Springboard_DataIntensive\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -562,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,6 +662,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -974,7 +981,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,6 +1248,113 @@
       </c>
       <c r="O6" s="12"/>
     </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C7" s="55">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55">
+        <v>1</v>
+      </c>
+      <c r="E7" s="55">
+        <v>2</v>
+      </c>
+      <c r="F7" s="55">
+        <v>3</v>
+      </c>
+      <c r="G7" s="55">
+        <v>4</v>
+      </c>
+      <c r="H7" s="55">
+        <v>5</v>
+      </c>
+      <c r="I7" s="55">
+        <v>6</v>
+      </c>
+      <c r="J7" s="55">
+        <v>7</v>
+      </c>
+      <c r="K7" s="55">
+        <v>8</v>
+      </c>
+      <c r="L7" s="55">
+        <v>9</v>
+      </c>
+      <c r="M7" s="55">
+        <v>10</v>
+      </c>
+      <c r="N7" s="55">
+        <v>11</v>
+      </c>
+      <c r="O7" s="55">
+        <v>12</v>
+      </c>
+      <c r="P7" s="55">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>14</v>
+      </c>
+      <c r="R7" s="55">
+        <v>15</v>
+      </c>
+      <c r="S7" s="55">
+        <v>16</v>
+      </c>
+      <c r="T7" s="55">
+        <v>17</v>
+      </c>
+      <c r="U7" s="55">
+        <v>18</v>
+      </c>
+      <c r="V7" s="55">
+        <v>19</v>
+      </c>
+      <c r="W7" s="55">
+        <v>20</v>
+      </c>
+      <c r="X7" s="55">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="55">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="55">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="55">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="55">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="55">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="55">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="55">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="55">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="55">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="55">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="55">
+        <v>32</v>
+      </c>
+      <c r="AJ7" s="55">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="55">
+        <v>34</v>
+      </c>
+    </row>
     <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>31</v>
@@ -1606,6 +1720,113 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1</v>
+      </c>
+      <c r="E15" s="55">
+        <v>2</v>
+      </c>
+      <c r="F15" s="55">
+        <v>3</v>
+      </c>
+      <c r="G15" s="55">
+        <v>4</v>
+      </c>
+      <c r="H15" s="55">
+        <v>5</v>
+      </c>
+      <c r="I15" s="55">
+        <v>6</v>
+      </c>
+      <c r="J15" s="55">
+        <v>7</v>
+      </c>
+      <c r="K15" s="55">
+        <v>8</v>
+      </c>
+      <c r="L15" s="55">
+        <v>9</v>
+      </c>
+      <c r="M15" s="55">
+        <v>10</v>
+      </c>
+      <c r="N15" s="55">
+        <v>11</v>
+      </c>
+      <c r="O15" s="55">
+        <v>12</v>
+      </c>
+      <c r="P15" s="55">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>14</v>
+      </c>
+      <c r="R15" s="55">
+        <v>15</v>
+      </c>
+      <c r="S15" s="55">
+        <v>16</v>
+      </c>
+      <c r="T15" s="55">
+        <v>17</v>
+      </c>
+      <c r="U15" s="55">
+        <v>18</v>
+      </c>
+      <c r="V15" s="55">
+        <v>19</v>
+      </c>
+      <c r="W15" s="55">
+        <v>20</v>
+      </c>
+      <c r="X15" s="55">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="55">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="55">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="55">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="55">
+        <v>25</v>
+      </c>
+      <c r="AC15" s="55">
+        <v>26</v>
+      </c>
+      <c r="AD15" s="55">
+        <v>27</v>
+      </c>
+      <c r="AE15" s="55">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="55">
+        <v>29</v>
+      </c>
+      <c r="AG15" s="55">
+        <v>30</v>
+      </c>
+      <c r="AH15" s="55">
+        <v>31</v>
+      </c>
+      <c r="AI15" s="55">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="55">
+        <v>33</v>
+      </c>
+      <c r="AK15" s="55">
+        <v>34</v>
+      </c>
+    </row>
     <row r="16" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>66</v>
